--- a/biology/Zoologie/Charaxes_durnfordi/Charaxes_durnfordi.xlsx
+++ b/biology/Zoologie/Charaxes_durnfordi/Charaxes_durnfordi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charases durnfordi est une espèce d'insectes lépidoptères de la famille des Nymphalidae, de la sous-famille des Charaxinae et du genre Charaxes.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Charaxes  durnfordi a été décrite en 1884 par nommé par William Lucas Distant[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Charaxes  durnfordi a été décrite en 1884 par nommé par William Lucas Distant.
 </t>
         </is>
       </c>
@@ -542,16 +556,18 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les différentes sources donnent des informations différentes. Sur Funet :
 Charaxes durnfordi durnfordi ; présent en Malaisie.
 Charaxes durnfordi connectens de Nicéville, 1897 ; présent à Sumatra.
 Charaxes durnfordi everetti Rothschild, 1894 ; présent à Bornéo.
-Charaxes durnfordi merguia Tytler, 1926 ; présent en Thaïlande[2]
+Charaxes durnfordi merguia Tytler, 1926 ; présent en Thaïlande
 Charaxes durnfordi nicholi (Grose-Smith, 1886) ; présent en Birmanie.
-Charaxes durnfordi staudingeri Rothschild, 1894 ; présent dans l'Ouest de Java[1].
-Sur Wikispecies d'après Hanafusa[3].
+Charaxes durnfordi staudingeri Rothschild, 1894 ; présent dans l'Ouest de Java.
+Sur Wikispecies d'après Hanafusa.
 Charaxes durnfordi durnfordi
 Charaxes durnfordi kawaii
 Charaxes durnfordi nanami
@@ -583,9 +599,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charaxes  durnfordi se nomme Chestnut Rajah en anglais[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes  durnfordi se nomme Chestnut Rajah en anglais.
 </t>
         </is>
       </c>
@@ -614,7 +632,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Charaxes durnfordi est un grand papillon au dessus marron et ornementation blanche, aux ailes antérieures deux lignes de chevrons et aux ailes postérieures une bande marginale blanche comportant une  ligne submarginale de taches marron centrées de blanc. 
 </t>
@@ -642,12 +662,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Asie du Sud-Est, en Inde, en Birmanie, en Malaisie et sur les iles de Bornéo, Sumatra et Java.
+Sur les autres projets Wikimedia :
+Charaxes durnfordi, sur Wikimedia CommonsCharaxes durnfordi, sur Wikispecies
+</t>
         </is>
       </c>
     </row>
@@ -677,12 +702,13 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est présent en Asie du Sud-Est, en Inde, en Birmanie, en Malaisie et sur les iles de Bornéo, Sumatra et Java[1].
-Sur les autres projets Wikimedia :
-Charaxes durnfordi, sur Wikimedia CommonsCharaxes durnfordi, sur Wikispecies
-Biotope
-Protection
-Pas de protection : il est en vente libre sur internet.
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de protection : il est en vente libre sur internet.
 </t>
         </is>
       </c>
